--- a/result.xlsx
+++ b/result.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHANU SURYAVANSHI\Desktop\new Excel Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099E1C0-CDBE-4D9F-A3DE-233D24262700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48667DFD-5673-479F-8795-741DA3EDAB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{0E668913-53B6-4D4E-80DC-A3930A4C74DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0E668913-53B6-4D4E-80DC-A3930A4C74DB}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
+    <sheet name="VLOOCKUP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
   <si>
     <t>Roll No</t>
   </si>
@@ -274,13 +275,25 @@
   </si>
   <si>
     <t>No of Student SUPP</t>
+  </si>
+  <si>
+    <t>pass count</t>
+  </si>
+  <si>
+    <t>failed count</t>
+  </si>
+  <si>
+    <t>VLOOKUP</t>
+  </si>
+  <si>
+    <t>VLOOKUP ROW WISE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +436,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,8 +639,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -750,6 +785,79 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -795,18 +903,48 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -853,37 +991,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1246,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44638CA4-8A24-4387-B1AB-55B23B85F3FE}">
   <dimension ref="A2:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1261,31 +1369,34 @@
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="27.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E3" s="4"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
@@ -1318,8 +1429,14 @@
       <c r="M5" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="N5" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D6" s="1">
         <v>1</v>
       </c>
@@ -1353,16 +1470,24 @@
         <f t="array" ref="M6">_xlfn.IFS(COUNTIF(F6:J6,"&gt;=50")=5,"PASS",COUNTIF(F6:J6,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="N6">
+        <f>COUNTIF(F6:J6,"&gt;=50")</f>
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <f>COUNTIF(F6:J6,"&lt;50")</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="8"/>
+    </row>
+    <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <v>2</v>
       </c>
@@ -1396,12 +1521,20 @@
         <f t="array" ref="M7">_xlfn.IFS(COUNTIF(F7:J7,"&gt;=50")=5,"PASS",COUNTIF(F7:J7,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="N7">
+        <f t="shared" ref="N7:N55" si="2">COUNTIF(F7:J7,"&gt;=50")</f>
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O55" si="3">COUNTIF(F7:J7,"&lt;50")</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
@@ -1436,6 +1569,14 @@
       <c r="M8" s="1" t="str" cm="1">
         <f t="array" ref="M8">_xlfn.IFS(COUNTIF(F8:J8,"&gt;=50")=5,"PASS",COUNTIF(F8:J8,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>SUPP</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>59</v>
@@ -1483,6 +1624,14 @@
         <f t="array" ref="M9">_xlfn.IFS(COUNTIF(F9:J9,"&gt;=50")=5,"PASS",COUNTIF(F9:J9,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R9" s="1" t="s">
         <v>62</v>
       </c>
@@ -1529,6 +1678,14 @@
         <f t="array" ref="M10">_xlfn.IFS(COUNTIF(F10:J10,"&gt;=50")=5,"PASS",COUNTIF(F10:J10,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
+      <c r="N10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="R10" s="1" t="s">
         <v>72</v>
       </c>
@@ -1580,6 +1737,14 @@
       <c r="M11" s="1" t="str" cm="1">
         <f t="array" ref="M11">_xlfn.IFS(COUNTIF(F11:J11,"&gt;=50")=5,"PASS",COUNTIF(F11:J11,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R11" s="1" t="s">
         <v>63</v>
@@ -1630,6 +1795,14 @@
         <f t="array" ref="M12">_xlfn.IFS(COUNTIF(F12:J12,"&gt;=50")=5,"PASS",COUNTIF(F12:J12,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R12" s="1" t="s">
         <v>64</v>
       </c>
@@ -1673,10 +1846,21 @@
         <f t="array" ref="M13">_xlfn.IFS(COUNTIF(F13:J13,"&gt;=50")=5,"PASS",COUNTIF(F13:J13,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N13">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="S13" s="1"/>
+      <c r="S13" s="1">
+        <f>COUNTIF(O6:O55,"1")</f>
+        <v>0</v>
+      </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1716,10 +1900,21 @@
         <f t="array" ref="M14">_xlfn.IFS(COUNTIF(F14:J14,"&gt;=50")=5,"PASS",COUNTIF(F14:J14,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
+      <c r="N14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="R14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="S14" s="1"/>
+      <c r="S14" s="1">
+        <f>COUNTIF(O6:O55,"2")</f>
+        <v>1</v>
+      </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
@@ -1758,6 +1953,14 @@
       <c r="M15" s="1" t="str" cm="1">
         <f t="array" ref="M15">_xlfn.IFS(COUNTIF(F15:J15,"&gt;=50")=5,"PASS",COUNTIF(F15:J15,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>67</v>
@@ -1802,10 +2005,21 @@
         <f t="array" ref="M16">_xlfn.IFS(COUNTIF(F16:J16,"&gt;=50")=5,"PASS",COUNTIF(F16:J16,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N16">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="1"/>
+      <c r="S16" s="1">
+        <f>COUNTIF(L6:L55,"&gt;80")</f>
+        <v>11</v>
+      </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
@@ -1844,6 +2058,14 @@
       <c r="M17" s="1" t="str" cm="1">
         <f t="array" ref="M17">_xlfn.IFS(COUNTIF(F17:J17,"&gt;=50")=5,"PASS",COUNTIF(F17:J17,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
@@ -1886,6 +2108,14 @@
         <f t="array" ref="M18">_xlfn.IFS(COUNTIF(F18:J18,"&gt;=50")=5,"PASS",COUNTIF(F18:J18,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N18">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
@@ -1927,6 +2157,14 @@
         <f t="array" ref="M19">_xlfn.IFS(COUNTIF(F19:J19,"&gt;=50")=5,"PASS",COUNTIF(F19:J19,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
+      <c r="N19">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
@@ -1968,6 +2206,14 @@
         <f t="array" ref="M20">_xlfn.IFS(COUNTIF(F20:J20,"&gt;=50")=5,"PASS",COUNTIF(F20:J20,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
+      <c r="N20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
@@ -2009,6 +2255,14 @@
         <f t="array" ref="M21">_xlfn.IFS(COUNTIF(F21:J21,"&gt;=50")=5,"PASS",COUNTIF(F21:J21,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N21">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
@@ -2050,6 +2304,14 @@
         <f t="array" ref="M22">_xlfn.IFS(COUNTIF(F22:J22,"&gt;=50")=5,"PASS",COUNTIF(F22:J22,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N22">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
@@ -2085,6 +2347,14 @@
         <f t="array" ref="M23">_xlfn.IFS(COUNTIF(F23:J23,"&gt;=50")=5,"PASS",COUNTIF(F23:J23,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
@@ -2120,6 +2390,14 @@
         <f t="array" ref="M24">_xlfn.IFS(COUNTIF(F24:J24,"&gt;=50")=5,"PASS",COUNTIF(F24:J24,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
+      <c r="N24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="25" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
@@ -2155,6 +2433,14 @@
         <f t="array" ref="M25">_xlfn.IFS(COUNTIF(F25:J25,"&gt;=50")=5,"PASS",COUNTIF(F25:J25,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N25">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D26" s="1">
@@ -2190,6 +2476,14 @@
         <f t="array" ref="M26">_xlfn.IFS(COUNTIF(F26:J26,"&gt;=50")=5,"PASS",COUNTIF(F26:J26,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D27" s="1">
@@ -2225,6 +2519,14 @@
         <f t="array" ref="M27">_xlfn.IFS(COUNTIF(F27:J27,"&gt;=50")=5,"PASS",COUNTIF(F27:J27,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N27">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D28" s="1">
@@ -2260,6 +2562,14 @@
         <f t="array" ref="M28">_xlfn.IFS(COUNTIF(F28:J28,"&gt;=50")=5,"PASS",COUNTIF(F28:J28,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N28">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D29" s="1">
@@ -2295,6 +2605,14 @@
         <f t="array" ref="M29">_xlfn.IFS(COUNTIF(F29:J29,"&gt;=50")=5,"PASS",COUNTIF(F29:J29,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
+      <c r="N29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
     </row>
     <row r="30" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D30" s="1">
@@ -2330,6 +2648,14 @@
         <f t="array" ref="M30">_xlfn.IFS(COUNTIF(F30:J30,"&gt;=50")=5,"PASS",COUNTIF(F30:J30,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N30">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D31" s="1">
@@ -2365,6 +2691,14 @@
         <f t="array" ref="M31">_xlfn.IFS(COUNTIF(F31:J31,"&gt;=50")=5,"PASS",COUNTIF(F31:J31,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
+      <c r="N31">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="4:23" x14ac:dyDescent="0.3">
       <c r="D32" s="1">
@@ -2400,8 +2734,16 @@
         <f t="array" ref="M32">_xlfn.IFS(COUNTIF(F32:J32,"&gt;=50")=5,"PASS",COUNTIF(F32:J32,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D33" s="1">
         <v>28</v>
       </c>
@@ -2435,8 +2777,16 @@
         <f t="array" ref="M33">_xlfn.IFS(COUNTIF(F33:J33,"&gt;=50")=5,"PASS",COUNTIF(F33:J33,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D34" s="1">
         <v>29</v>
       </c>
@@ -2470,8 +2820,16 @@
         <f t="array" ref="M34">_xlfn.IFS(COUNTIF(F34:J34,"&gt;=50")=5,"PASS",COUNTIF(F34:J34,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N34">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D35" s="1">
         <v>30</v>
       </c>
@@ -2505,8 +2863,16 @@
         <f t="array" ref="M35">_xlfn.IFS(COUNTIF(F35:J35,"&gt;=50")=5,"PASS",COUNTIF(F35:J35,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N35">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D36" s="1">
         <v>31</v>
       </c>
@@ -2540,8 +2906,16 @@
         <f t="array" ref="M36">_xlfn.IFS(COUNTIF(F36:J36,"&gt;=50")=5,"PASS",COUNTIF(F36:J36,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="37" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N36">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="1">
         <v>32</v>
       </c>
@@ -2575,8 +2949,16 @@
         <f t="array" ref="M37">_xlfn.IFS(COUNTIF(F37:J37,"&gt;=50")=5,"PASS",COUNTIF(F37:J37,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="38" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="1">
         <v>33</v>
       </c>
@@ -2610,8 +2992,16 @@
         <f t="array" ref="M38">_xlfn.IFS(COUNTIF(F38:J38,"&gt;=50")=5,"PASS",COUNTIF(F38:J38,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N38">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="1">
         <v>34</v>
       </c>
@@ -2645,8 +3035,16 @@
         <f t="array" ref="M39">_xlfn.IFS(COUNTIF(F39:J39,"&gt;=50")=5,"PASS",COUNTIF(F39:J39,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="1">
         <v>35</v>
       </c>
@@ -2680,8 +3078,16 @@
         <f t="array" ref="M40">_xlfn.IFS(COUNTIF(F40:J40,"&gt;=50")=5,"PASS",COUNTIF(F40:J40,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N40">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="1">
         <v>36</v>
       </c>
@@ -2715,8 +3121,16 @@
         <f t="array" ref="M41">_xlfn.IFS(COUNTIF(F41:J41,"&gt;=50")=5,"PASS",COUNTIF(F41:J41,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N41">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="1">
         <v>37</v>
       </c>
@@ -2750,8 +3164,16 @@
         <f t="array" ref="M42">_xlfn.IFS(COUNTIF(F42:J42,"&gt;=50")=5,"PASS",COUNTIF(F42:J42,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N42">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="1">
         <v>38</v>
       </c>
@@ -2785,8 +3207,16 @@
         <f t="array" ref="M43">_xlfn.IFS(COUNTIF(F43:J43,"&gt;=50")=5,"PASS",COUNTIF(F43:J43,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="1">
         <v>39</v>
       </c>
@@ -2820,8 +3250,16 @@
         <f t="array" ref="M44">_xlfn.IFS(COUNTIF(F44:J44,"&gt;=50")=5,"PASS",COUNTIF(F44:J44,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="1">
         <v>40</v>
       </c>
@@ -2855,8 +3293,16 @@
         <f t="array" ref="M45">_xlfn.IFS(COUNTIF(F45:J45,"&gt;=50")=5,"PASS",COUNTIF(F45:J45,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="1">
         <v>41</v>
       </c>
@@ -2890,8 +3336,16 @@
         <f t="array" ref="M46">_xlfn.IFS(COUNTIF(F46:J46,"&gt;=50")=5,"PASS",COUNTIF(F46:J46,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N46">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="1">
         <v>42</v>
       </c>
@@ -2925,8 +3379,16 @@
         <f t="array" ref="M47">_xlfn.IFS(COUNTIF(F47:J47,"&gt;=50")=5,"PASS",COUNTIF(F47:J47,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N47">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="1">
         <v>43</v>
       </c>
@@ -2960,8 +3422,16 @@
         <f t="array" ref="M48">_xlfn.IFS(COUNTIF(F48:J48,"&gt;=50")=5,"PASS",COUNTIF(F48:J48,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="1">
         <v>44</v>
       </c>
@@ -2995,8 +3465,16 @@
         <f t="array" ref="M49">_xlfn.IFS(COUNTIF(F49:J49,"&gt;=50")=5,"PASS",COUNTIF(F49:J49,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>FAIL</v>
       </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="1">
         <v>45</v>
       </c>
@@ -3030,8 +3508,16 @@
         <f t="array" ref="M50">_xlfn.IFS(COUNTIF(F50:J50,"&gt;=50")=5,"PASS",COUNTIF(F50:J50,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N50">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="1">
         <v>46</v>
       </c>
@@ -3065,8 +3551,16 @@
         <f t="array" ref="M51">_xlfn.IFS(COUNTIF(F51:J51,"&gt;=50")=5,"PASS",COUNTIF(F51:J51,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="52" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N51">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="1">
         <v>47</v>
       </c>
@@ -3100,8 +3594,16 @@
         <f t="array" ref="M52">_xlfn.IFS(COUNTIF(F52:J52,"&gt;=50")=5,"PASS",COUNTIF(F52:J52,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="53" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N52">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="1">
         <v>48</v>
       </c>
@@ -3135,8 +3637,16 @@
         <f t="array" ref="M53">_xlfn.IFS(COUNTIF(F53:J53,"&gt;=50")=5,"PASS",COUNTIF(F53:J53,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="54" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N53">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D54" s="1">
         <v>49</v>
       </c>
@@ -3170,8 +3680,16 @@
         <f t="array" ref="M54">_xlfn.IFS(COUNTIF(F54:J54,"&gt;=50")=5,"PASS",COUNTIF(F54:J54,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
       </c>
-    </row>
-    <row r="55" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="N54">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D55" s="1">
         <v>50</v>
       </c>
@@ -3204,6 +3722,14 @@
       <c r="M55" s="1" t="str" cm="1">
         <f t="array" ref="M55">_xlfn.IFS(COUNTIF(F55:J55,"&gt;=50")=5,"PASS",COUNTIF(F55:J55,"&gt;=50")&gt;=3,"SUPP",TRUE(),"FAIL")</f>
         <v>PASS</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3222,4 +3748,1370 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2747E55-D36D-4379-AC23-41AADD3CB7B9}">
+  <dimension ref="D4:S55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="O4" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+    </row>
+    <row r="5" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+    </row>
+    <row r="6" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
+        <v>68</v>
+      </c>
+      <c r="G6" s="4">
+        <v>72</v>
+      </c>
+      <c r="H6" s="4">
+        <v>70</v>
+      </c>
+      <c r="I6" s="4">
+        <v>66</v>
+      </c>
+      <c r="J6" s="4">
+        <v>75</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+    </row>
+    <row r="7" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4">
+        <v>74</v>
+      </c>
+      <c r="G7" s="4">
+        <v>81</v>
+      </c>
+      <c r="H7" s="4">
+        <v>78</v>
+      </c>
+      <c r="I7" s="4">
+        <v>76</v>
+      </c>
+      <c r="J7" s="4">
+        <v>82</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="4">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4">
+        <v>52</v>
+      </c>
+      <c r="H8" s="4">
+        <v>48</v>
+      </c>
+      <c r="I8" s="4">
+        <v>50</v>
+      </c>
+      <c r="J8" s="4">
+        <v>55</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" cm="1">
+        <f t="array" ref="O8:S8">VLOOKUP($N$8,$E$6:$J$55,{2,3,4,5,6},0)</f>
+        <v>74</v>
+      </c>
+      <c r="P8" s="1">
+        <v>81</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>78</v>
+      </c>
+      <c r="R8" s="1">
+        <v>76</v>
+      </c>
+      <c r="S8" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>82</v>
+      </c>
+      <c r="G9" s="4">
+        <v>88</v>
+      </c>
+      <c r="H9" s="4">
+        <v>85</v>
+      </c>
+      <c r="I9" s="4">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="4">
+        <v>34</v>
+      </c>
+      <c r="G10" s="4">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4">
+        <v>38</v>
+      </c>
+      <c r="I10" s="4">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <v>6</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4">
+        <v>71</v>
+      </c>
+      <c r="G11" s="4">
+        <v>69</v>
+      </c>
+      <c r="H11" s="4">
+        <v>73</v>
+      </c>
+      <c r="I11" s="4">
+        <v>70</v>
+      </c>
+      <c r="J11" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4">
+        <v>58</v>
+      </c>
+      <c r="G12" s="4">
+        <v>61</v>
+      </c>
+      <c r="H12" s="4">
+        <v>60</v>
+      </c>
+      <c r="I12" s="4">
+        <v>57</v>
+      </c>
+      <c r="J12" s="4">
+        <v>62</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+    </row>
+    <row r="13" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="4">
+        <v>89</v>
+      </c>
+      <c r="G13" s="4">
+        <v>92</v>
+      </c>
+      <c r="H13" s="4">
+        <v>90</v>
+      </c>
+      <c r="I13" s="4">
+        <v>88</v>
+      </c>
+      <c r="J13" s="4">
+        <v>94</v>
+      </c>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+    </row>
+    <row r="14" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <v>41</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45</v>
+      </c>
+      <c r="H14" s="4">
+        <v>43</v>
+      </c>
+      <c r="I14" s="4">
+        <v>44</v>
+      </c>
+      <c r="J14" s="4">
+        <v>46</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="4">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4">
+        <v>70</v>
+      </c>
+      <c r="H15" s="4">
+        <v>68</v>
+      </c>
+      <c r="I15" s="4">
+        <v>65</v>
+      </c>
+      <c r="J15" s="4">
+        <v>72</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="1">
+        <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(B5),0)</f>
+        <v>45</v>
+      </c>
+      <c r="P15" s="1">
+        <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(C5),0)</f>
+        <v>52</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(D5),0)</f>
+        <v>48</v>
+      </c>
+      <c r="R15" s="1">
+        <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(E5),0)</f>
+        <v>50</v>
+      </c>
+      <c r="S15" s="1">
+        <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(F5),0)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="4:19" x14ac:dyDescent="0.3">
+      <c r="D16" s="4">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="4">
+        <v>76</v>
+      </c>
+      <c r="G16" s="4">
+        <v>80</v>
+      </c>
+      <c r="H16" s="4">
+        <v>78</v>
+      </c>
+      <c r="I16" s="4">
+        <v>75</v>
+      </c>
+      <c r="J16" s="4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <v>12</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="4">
+        <v>54</v>
+      </c>
+      <c r="G17" s="4">
+        <v>58</v>
+      </c>
+      <c r="H17" s="4">
+        <v>56</v>
+      </c>
+      <c r="I17" s="4">
+        <v>55</v>
+      </c>
+      <c r="J17" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="4">
+        <v>13</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="4">
+        <v>62</v>
+      </c>
+      <c r="G18" s="4">
+        <v>65</v>
+      </c>
+      <c r="H18" s="4">
+        <v>63</v>
+      </c>
+      <c r="I18" s="4">
+        <v>61</v>
+      </c>
+      <c r="J18" s="4">
+        <v>67</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="O18" s="15"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19" s="4">
+        <v>14</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4">
+        <v>50</v>
+      </c>
+      <c r="H19" s="4">
+        <v>48</v>
+      </c>
+      <c r="I19" s="4">
+        <v>46</v>
+      </c>
+      <c r="J19" s="4">
+        <v>52</v>
+      </c>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="4">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="4">
+        <v>35</v>
+      </c>
+      <c r="G20" s="4">
+        <v>38</v>
+      </c>
+      <c r="H20" s="4">
+        <v>40</v>
+      </c>
+      <c r="I20" s="4">
+        <v>37</v>
+      </c>
+      <c r="J20" s="4">
+        <v>42</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D21" s="4">
+        <v>16</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4">
+        <v>81</v>
+      </c>
+      <c r="G21" s="4">
+        <v>84</v>
+      </c>
+      <c r="H21" s="4">
+        <v>83</v>
+      </c>
+      <c r="I21" s="4">
+        <v>80</v>
+      </c>
+      <c r="J21" s="4">
+        <v>86</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C2),0)</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <v>17</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="4">
+        <v>59</v>
+      </c>
+      <c r="G22" s="4">
+        <v>62</v>
+      </c>
+      <c r="H22" s="4">
+        <v>60</v>
+      </c>
+      <c r="I22" s="4">
+        <v>58</v>
+      </c>
+      <c r="J22" s="4">
+        <v>64</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="1">
+        <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C3),0)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <v>18</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="4">
+        <v>73</v>
+      </c>
+      <c r="G23" s="4">
+        <v>77</v>
+      </c>
+      <c r="H23" s="4">
+        <v>75</v>
+      </c>
+      <c r="I23" s="4">
+        <v>72</v>
+      </c>
+      <c r="J23" s="4">
+        <v>79</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" s="1">
+        <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C4),0)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <v>19</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="4">
+        <v>44</v>
+      </c>
+      <c r="G24" s="4">
+        <v>48</v>
+      </c>
+      <c r="H24" s="4">
+        <v>45</v>
+      </c>
+      <c r="I24" s="4">
+        <v>46</v>
+      </c>
+      <c r="J24" s="4">
+        <v>50</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O24" s="1">
+        <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C5),0)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25" s="4">
+        <v>20</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="4">
+        <v>88</v>
+      </c>
+      <c r="G25" s="4">
+        <v>90</v>
+      </c>
+      <c r="H25" s="4">
+        <v>89</v>
+      </c>
+      <c r="I25" s="4">
+        <v>87</v>
+      </c>
+      <c r="J25" s="4">
+        <v>92</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O25" s="1">
+        <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C6),0)</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D26" s="4">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4">
+        <v>51</v>
+      </c>
+      <c r="G26" s="4">
+        <v>54</v>
+      </c>
+      <c r="H26" s="4">
+        <v>52</v>
+      </c>
+      <c r="I26" s="4">
+        <v>50</v>
+      </c>
+      <c r="J26" s="4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="4">
+        <v>79</v>
+      </c>
+      <c r="G27" s="4">
+        <v>82</v>
+      </c>
+      <c r="H27" s="4">
+        <v>80</v>
+      </c>
+      <c r="I27" s="4">
+        <v>78</v>
+      </c>
+      <c r="J27" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4">
+        <v>63</v>
+      </c>
+      <c r="G28" s="4">
+        <v>66</v>
+      </c>
+      <c r="H28" s="4">
+        <v>64</v>
+      </c>
+      <c r="I28" s="4">
+        <v>62</v>
+      </c>
+      <c r="J28" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <v>24</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="4">
+        <v>39</v>
+      </c>
+      <c r="G29" s="4">
+        <v>42</v>
+      </c>
+      <c r="H29" s="4">
+        <v>40</v>
+      </c>
+      <c r="I29" s="4">
+        <v>38</v>
+      </c>
+      <c r="J29" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="4">
+        <v>85</v>
+      </c>
+      <c r="G30" s="4">
+        <v>88</v>
+      </c>
+      <c r="H30" s="4">
+        <v>87</v>
+      </c>
+      <c r="I30" s="4">
+        <v>84</v>
+      </c>
+      <c r="J30" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="4">
+        <v>56</v>
+      </c>
+      <c r="G31" s="4">
+        <v>59</v>
+      </c>
+      <c r="H31" s="4">
+        <v>58</v>
+      </c>
+      <c r="I31" s="4">
+        <v>55</v>
+      </c>
+      <c r="J31" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="4">
+        <v>72</v>
+      </c>
+      <c r="G32" s="4">
+        <v>75</v>
+      </c>
+      <c r="H32" s="4">
+        <v>73</v>
+      </c>
+      <c r="I32" s="4">
+        <v>71</v>
+      </c>
+      <c r="J32" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="4">
+        <v>33</v>
+      </c>
+      <c r="G33" s="4">
+        <v>36</v>
+      </c>
+      <c r="H33" s="4">
+        <v>35</v>
+      </c>
+      <c r="I33" s="4">
+        <v>34</v>
+      </c>
+      <c r="J33" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="4">
+        <v>29</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="4">
+        <v>66</v>
+      </c>
+      <c r="G34" s="4">
+        <v>69</v>
+      </c>
+      <c r="H34" s="4">
+        <v>67</v>
+      </c>
+      <c r="I34" s="4">
+        <v>65</v>
+      </c>
+      <c r="J34" s="4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="4">
+        <v>91</v>
+      </c>
+      <c r="G35" s="4">
+        <v>94</v>
+      </c>
+      <c r="H35" s="4">
+        <v>92</v>
+      </c>
+      <c r="I35" s="4">
+        <v>90</v>
+      </c>
+      <c r="J35" s="4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <v>31</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="4">
+        <v>48</v>
+      </c>
+      <c r="G36" s="4">
+        <v>50</v>
+      </c>
+      <c r="H36" s="4">
+        <v>49</v>
+      </c>
+      <c r="I36" s="4">
+        <v>47</v>
+      </c>
+      <c r="J36" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D37" s="4">
+        <v>32</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="4">
+        <v>77</v>
+      </c>
+      <c r="G37" s="4">
+        <v>80</v>
+      </c>
+      <c r="H37" s="4">
+        <v>78</v>
+      </c>
+      <c r="I37" s="4">
+        <v>76</v>
+      </c>
+      <c r="J37" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D38" s="4">
+        <v>33</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F38" s="4">
+        <v>60</v>
+      </c>
+      <c r="G38" s="4">
+        <v>63</v>
+      </c>
+      <c r="H38" s="4">
+        <v>61</v>
+      </c>
+      <c r="I38" s="4">
+        <v>59</v>
+      </c>
+      <c r="J38" s="4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D39" s="4">
+        <v>34</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" s="4">
+        <v>42</v>
+      </c>
+      <c r="G39" s="4">
+        <v>45</v>
+      </c>
+      <c r="H39" s="4">
+        <v>43</v>
+      </c>
+      <c r="I39" s="4">
+        <v>41</v>
+      </c>
+      <c r="J39" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D40" s="4">
+        <v>35</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="4">
+        <v>84</v>
+      </c>
+      <c r="G40" s="4">
+        <v>87</v>
+      </c>
+      <c r="H40" s="4">
+        <v>85</v>
+      </c>
+      <c r="I40" s="4">
+        <v>82</v>
+      </c>
+      <c r="J40" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="4">
+        <v>36</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" s="4">
+        <v>55</v>
+      </c>
+      <c r="G41" s="4">
+        <v>58</v>
+      </c>
+      <c r="H41" s="4">
+        <v>56</v>
+      </c>
+      <c r="I41" s="4">
+        <v>54</v>
+      </c>
+      <c r="J41" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D42" s="4">
+        <v>37</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="4">
+        <v>70</v>
+      </c>
+      <c r="G42" s="4">
+        <v>73</v>
+      </c>
+      <c r="H42" s="4">
+        <v>71</v>
+      </c>
+      <c r="I42" s="4">
+        <v>69</v>
+      </c>
+      <c r="J42" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D43" s="4">
+        <v>38</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" s="4">
+        <v>36</v>
+      </c>
+      <c r="G43" s="4">
+        <v>39</v>
+      </c>
+      <c r="H43" s="4">
+        <v>38</v>
+      </c>
+      <c r="I43" s="4">
+        <v>37</v>
+      </c>
+      <c r="J43" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D44" s="4">
+        <v>39</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="4">
+        <v>64</v>
+      </c>
+      <c r="G44" s="4">
+        <v>67</v>
+      </c>
+      <c r="H44" s="4">
+        <v>65</v>
+      </c>
+      <c r="I44" s="4">
+        <v>63</v>
+      </c>
+      <c r="J44" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D45" s="4">
+        <v>40</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" s="4">
+        <v>78</v>
+      </c>
+      <c r="G45" s="4">
+        <v>81</v>
+      </c>
+      <c r="H45" s="4">
+        <v>79</v>
+      </c>
+      <c r="I45" s="4">
+        <v>77</v>
+      </c>
+      <c r="J45" s="4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D46" s="4">
+        <v>41</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="4">
+        <v>46</v>
+      </c>
+      <c r="G46" s="4">
+        <v>49</v>
+      </c>
+      <c r="H46" s="4">
+        <v>47</v>
+      </c>
+      <c r="I46" s="4">
+        <v>45</v>
+      </c>
+      <c r="J46" s="4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D47" s="4">
+        <v>42</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="4">
+        <v>86</v>
+      </c>
+      <c r="G47" s="4">
+        <v>89</v>
+      </c>
+      <c r="H47" s="4">
+        <v>88</v>
+      </c>
+      <c r="I47" s="4">
+        <v>85</v>
+      </c>
+      <c r="J47" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D48" s="4">
+        <v>43</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" s="4">
+        <v>57</v>
+      </c>
+      <c r="G48" s="4">
+        <v>60</v>
+      </c>
+      <c r="H48" s="4">
+        <v>58</v>
+      </c>
+      <c r="I48" s="4">
+        <v>56</v>
+      </c>
+      <c r="J48" s="4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D49" s="4">
+        <v>44</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F49" s="4">
+        <v>40</v>
+      </c>
+      <c r="G49" s="4">
+        <v>43</v>
+      </c>
+      <c r="H49" s="4">
+        <v>41</v>
+      </c>
+      <c r="I49" s="4">
+        <v>39</v>
+      </c>
+      <c r="J49" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D50" s="4">
+        <v>45</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F50" s="4">
+        <v>83</v>
+      </c>
+      <c r="G50" s="4">
+        <v>86</v>
+      </c>
+      <c r="H50" s="4">
+        <v>84</v>
+      </c>
+      <c r="I50" s="4">
+        <v>82</v>
+      </c>
+      <c r="J50" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D51" s="4">
+        <v>46</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="4">
+        <v>69</v>
+      </c>
+      <c r="G51" s="4">
+        <v>72</v>
+      </c>
+      <c r="H51" s="4">
+        <v>70</v>
+      </c>
+      <c r="I51" s="4">
+        <v>68</v>
+      </c>
+      <c r="J51" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D52" s="4">
+        <v>47</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F52" s="4">
+        <v>52</v>
+      </c>
+      <c r="G52" s="4">
+        <v>55</v>
+      </c>
+      <c r="H52" s="4">
+        <v>53</v>
+      </c>
+      <c r="I52" s="4">
+        <v>51</v>
+      </c>
+      <c r="J52" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D53" s="4">
+        <v>48</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="4">
+        <v>90</v>
+      </c>
+      <c r="G53" s="4">
+        <v>93</v>
+      </c>
+      <c r="H53" s="4">
+        <v>91</v>
+      </c>
+      <c r="I53" s="4">
+        <v>89</v>
+      </c>
+      <c r="J53" s="4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D54" s="4">
+        <v>49</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="4">
+        <v>61</v>
+      </c>
+      <c r="G54" s="4">
+        <v>64</v>
+      </c>
+      <c r="H54" s="4">
+        <v>62</v>
+      </c>
+      <c r="I54" s="4">
+        <v>60</v>
+      </c>
+      <c r="J54" s="4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.3">
+      <c r="D55" s="4">
+        <v>50</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="4">
+        <v>75</v>
+      </c>
+      <c r="G55" s="4">
+        <v>78</v>
+      </c>
+      <c r="H55" s="4">
+        <v>76</v>
+      </c>
+      <c r="I55" s="4">
+        <v>74</v>
+      </c>
+      <c r="J55" s="4">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="O4:R5"/>
+    <mergeCell ref="N18:O19"/>
+    <mergeCell ref="O12:R13"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8 N15 O20" xr:uid="{BDC4B10E-7A2F-4BBC-9E5F-488D043FB3A5}">
+      <formula1>$E$6:$E$55</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BHANU SURYAVANSHI\Desktop\new Excel Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48667DFD-5673-479F-8795-741DA3EDAB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FA84F3-1054-4EAE-B18B-691FD4A30A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{0E668913-53B6-4D4E-80DC-A3930A4C74DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{0E668913-53B6-4D4E-80DC-A3930A4C74DB}"/>
   </bookViews>
   <sheets>
     <sheet name="result" sheetId="1" r:id="rId1"/>
     <sheet name="VLOOCKUP" sheetId="2" r:id="rId2"/>
+    <sheet name="HLOOKUP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="84">
   <si>
     <t>Roll No</t>
   </si>
@@ -287,13 +288,34 @@
   </si>
   <si>
     <t>VLOOKUP ROW WISE</t>
+  </si>
+  <si>
+    <t>SUBJECT</t>
+  </si>
+  <si>
+    <t>HLOOKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBJECT POSITION </t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>VLOOKUP WITH MATCH</t>
+  </si>
+  <si>
+    <t>VLOOKUP COLUMN WISE</t>
+  </si>
+  <si>
+    <t>HLOOKUP WITH MATCH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -452,8 +474,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -642,6 +679,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,13 +946,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,6 +990,15 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1377,26 +1431,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D5" s="2" t="s">
@@ -1478,14 +1532,14 @@
         <f>COUNTIF(F6:J6,"&lt;50")</f>
         <v>0</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="R6" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="8"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="10"/>
     </row>
     <row r="7" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
@@ -1529,12 +1583,12 @@
         <f t="shared" ref="O7:O55" si="3">COUNTIF(F7:J7,"&lt;50")</f>
         <v>0</v>
       </c>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
@@ -3752,10 +3806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2747E55-D36D-4379-AC23-41AADD3CB7B9}">
-  <dimension ref="D4:S55"/>
+  <dimension ref="D4:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3769,21 +3823,19 @@
     <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:19" x14ac:dyDescent="0.3">
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D5" s="4" t="s">
@@ -3807,10 +3859,10 @@
       <c r="J5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
     </row>
     <row r="6" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D6" s="4">
@@ -3834,10 +3886,6 @@
       <c r="J6" s="4">
         <v>75</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
     </row>
     <row r="7" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D7" s="4">
@@ -3903,23 +3951,23 @@
         <v>55</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" s="1" cm="1">
         <f t="array" ref="O8:S8">VLOOKUP($N$8,$E$6:$J$55,{2,3,4,5,6},0)</f>
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="P8" s="1">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="Q8" s="1">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="R8" s="1">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="S8" s="1">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="4:19" x14ac:dyDescent="0.3">
@@ -4013,12 +4061,12 @@
       <c r="J12" s="4">
         <v>62</v>
       </c>
-      <c r="O12" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
+      <c r="O12" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
     </row>
     <row r="13" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D13" s="4">
@@ -4042,10 +4090,10 @@
       <c r="J13" s="4">
         <v>94</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
     </row>
     <row r="14" spans="4:19" x14ac:dyDescent="0.3">
       <c r="D14" s="4">
@@ -4111,27 +4159,27 @@
         <v>72</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O15" s="1">
         <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(B5),0)</f>
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="P15" s="1">
         <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(C5),0)</f>
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="Q15" s="1">
         <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(D5),0)</f>
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="R15" s="1">
         <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(E5),0)</f>
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="S15" s="1">
         <f>VLOOKUP($N$15,$E$6:$J$55,COLUMN(F5),0)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="4:19" x14ac:dyDescent="0.3">
@@ -4157,7 +4205,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D17" s="4">
         <v>12</v>
       </c>
@@ -4180,7 +4228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D18" s="4">
         <v>13</v>
       </c>
@@ -4202,12 +4250,12 @@
       <c r="J18" s="4">
         <v>67</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="O18" s="15"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="O18" s="17"/>
+    </row>
+    <row r="19" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D19" s="4">
         <v>14</v>
       </c>
@@ -4229,10 +4277,10 @@
       <c r="J19" s="4">
         <v>52</v>
       </c>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+    </row>
+    <row r="20" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D20" s="4">
         <v>15</v>
       </c>
@@ -4258,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D21" s="4">
         <v>16</v>
       </c>
@@ -4288,10 +4336,10 @@
       </c>
       <c r="O21" s="1">
         <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C2),0)</f>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D22" s="4">
         <v>17</v>
       </c>
@@ -4318,10 +4366,10 @@
       </c>
       <c r="O22" s="1">
         <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C3),0)</f>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D23" s="4">
         <v>18</v>
       </c>
@@ -4348,10 +4396,10 @@
       </c>
       <c r="O23" s="1">
         <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C4),0)</f>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D24" s="4">
         <v>19</v>
       </c>
@@ -4378,10 +4426,10 @@
       </c>
       <c r="O24" s="1">
         <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C5),0)</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D25" s="4">
         <v>20</v>
       </c>
@@ -4408,10 +4456,10 @@
       </c>
       <c r="O25" s="1">
         <f>VLOOKUP($O$20,$E$6:$J$55,ROW(C6),0)</f>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D26" s="4">
         <v>21</v>
       </c>
@@ -4434,7 +4482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D27" s="4">
         <v>22</v>
       </c>
@@ -4457,7 +4505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
         <v>23</v>
       </c>
@@ -4480,7 +4528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>24</v>
       </c>
@@ -4502,8 +4550,29 @@
       <c r="J29" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>25</v>
       </c>
@@ -4525,8 +4594,35 @@
       <c r="J30" s="4">
         <v>90</v>
       </c>
-    </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1" t="str">
+        <f>VLOOKUP($N$30,$D$6:$J$55,COLUMN(B2),0)</f>
+        <v>Aarav Sharma</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" ref="P30:T30" si="0">VLOOKUP($N$30,$D$6:$J$55,COLUMN(C2),0)</f>
+        <v>68</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>26</v>
       </c>
@@ -4549,7 +4645,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:20" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>27</v>
       </c>
@@ -5107,9 +5203,1386 @@
     <mergeCell ref="N18:O19"/>
     <mergeCell ref="O12:R13"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N8 N15 O20" xr:uid="{BDC4B10E-7A2F-4BBC-9E5F-488D043FB3A5}">
       <formula1>$E$6:$E$55</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N30" xr:uid="{EC3B2725-51A4-4BC3-8D70-7098189EB657}">
+      <formula1>$D$6:$D$55</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F750B766-9E06-4800-B0F7-517C3C950224}">
+  <dimension ref="A1:T51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.88671875" style="5"/>
+    <col min="10" max="11" width="16.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7">
+        <v>68</v>
+      </c>
+      <c r="D2" s="7">
+        <v>72</v>
+      </c>
+      <c r="E2" s="7">
+        <v>70</v>
+      </c>
+      <c r="F2" s="7">
+        <v>66</v>
+      </c>
+      <c r="G2" s="7">
+        <v>75</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7">
+        <v>81</v>
+      </c>
+      <c r="E3" s="7">
+        <v>78</v>
+      </c>
+      <c r="F3" s="7">
+        <v>76</v>
+      </c>
+      <c r="G3" s="7">
+        <v>82</v>
+      </c>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7">
+        <v>52</v>
+      </c>
+      <c r="E4" s="7">
+        <v>48</v>
+      </c>
+      <c r="F4" s="7">
+        <v>50</v>
+      </c>
+      <c r="G4" s="7">
+        <v>55</v>
+      </c>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7">
+        <v>82</v>
+      </c>
+      <c r="D5" s="7">
+        <v>88</v>
+      </c>
+      <c r="E5" s="7">
+        <v>85</v>
+      </c>
+      <c r="F5" s="7">
+        <v>80</v>
+      </c>
+      <c r="G5" s="7">
+        <v>90</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7">
+        <v>34</v>
+      </c>
+      <c r="D6" s="7">
+        <v>42</v>
+      </c>
+      <c r="E6" s="7">
+        <v>38</v>
+      </c>
+      <c r="F6" s="7">
+        <v>40</v>
+      </c>
+      <c r="G6" s="7">
+        <v>45</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <f>HLOOKUP($J$6,$B$1:$G$51,COLUMN(B2),0)</f>
+        <v>68</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" ref="L6:T6" si="0">HLOOKUP($J$6,$B$1:$G$51,COLUMN(C2),0)</f>
+        <v>74</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="S6" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>71</v>
+      </c>
+      <c r="D7" s="7">
+        <v>69</v>
+      </c>
+      <c r="E7" s="7">
+        <v>73</v>
+      </c>
+      <c r="F7" s="7">
+        <v>70</v>
+      </c>
+      <c r="G7" s="7">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7">
+        <v>58</v>
+      </c>
+      <c r="D8" s="7">
+        <v>61</v>
+      </c>
+      <c r="E8" s="7">
+        <v>60</v>
+      </c>
+      <c r="F8" s="7">
+        <v>57</v>
+      </c>
+      <c r="G8" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7">
+        <v>89</v>
+      </c>
+      <c r="D9" s="7">
+        <v>92</v>
+      </c>
+      <c r="E9" s="7">
+        <v>90</v>
+      </c>
+      <c r="F9" s="7">
+        <v>88</v>
+      </c>
+      <c r="G9" s="7">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="7">
+        <v>41</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43</v>
+      </c>
+      <c r="F10" s="7">
+        <v>44</v>
+      </c>
+      <c r="G10" s="7">
+        <v>46</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="7">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7">
+        <v>70</v>
+      </c>
+      <c r="E11" s="7">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7">
+        <v>65</v>
+      </c>
+      <c r="G11" s="7">
+        <v>72</v>
+      </c>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="7">
+        <v>76</v>
+      </c>
+      <c r="D12" s="7">
+        <v>80</v>
+      </c>
+      <c r="E12" s="7">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7">
+        <v>75</v>
+      </c>
+      <c r="G12" s="7">
+        <v>82</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
+        <v>54</v>
+      </c>
+      <c r="D13" s="7">
+        <v>58</v>
+      </c>
+      <c r="E13" s="7">
+        <v>56</v>
+      </c>
+      <c r="F13" s="7">
+        <v>55</v>
+      </c>
+      <c r="G13" s="7">
+        <v>60</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" s="5">
+        <f>MATCH(K13,B1:G1,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="7">
+        <v>62</v>
+      </c>
+      <c r="D14" s="7">
+        <v>65</v>
+      </c>
+      <c r="E14" s="7">
+        <v>63</v>
+      </c>
+      <c r="F14" s="7">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7">
+        <v>67</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="5">
+        <f>VLOOKUP($J$14,$B$2:$G$51,MATCH(K13,B1:G1,0),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7">
+        <v>48</v>
+      </c>
+      <c r="F15" s="7">
+        <v>46</v>
+      </c>
+      <c r="G15" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="7">
+        <v>35</v>
+      </c>
+      <c r="D16" s="7">
+        <v>38</v>
+      </c>
+      <c r="E16" s="7">
+        <v>40</v>
+      </c>
+      <c r="F16" s="7">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7">
+        <v>81</v>
+      </c>
+      <c r="D17" s="7">
+        <v>84</v>
+      </c>
+      <c r="E17" s="7">
+        <v>83</v>
+      </c>
+      <c r="F17" s="7">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7">
+        <v>86</v>
+      </c>
+      <c r="J17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="7">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="7">
+        <v>59</v>
+      </c>
+      <c r="D18" s="7">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7">
+        <v>60</v>
+      </c>
+      <c r="F18" s="7">
+        <v>58</v>
+      </c>
+      <c r="G18" s="7">
+        <v>64</v>
+      </c>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="7">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="7">
+        <v>73</v>
+      </c>
+      <c r="D19" s="7">
+        <v>77</v>
+      </c>
+      <c r="E19" s="7">
+        <v>75</v>
+      </c>
+      <c r="F19" s="7">
+        <v>72</v>
+      </c>
+      <c r="G19" s="7">
+        <v>79</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A20" s="7">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="7">
+        <v>44</v>
+      </c>
+      <c r="D20" s="7">
+        <v>48</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45</v>
+      </c>
+      <c r="F20" s="7">
+        <v>46</v>
+      </c>
+      <c r="G20" s="7">
+        <v>50</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" s="5">
+        <f>MATCH(J21,B1:B51,0)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="7">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="7">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7">
+        <v>90</v>
+      </c>
+      <c r="E21" s="7">
+        <v>89</v>
+      </c>
+      <c r="F21" s="7">
+        <v>87</v>
+      </c>
+      <c r="G21" s="7">
+        <v>92</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="5">
+        <f>HLOOKUP($K$20,$B$1:$G$51,MATCH(J21,B1:B51,0),0)</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="7">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="7">
+        <v>51</v>
+      </c>
+      <c r="D22" s="7">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7">
+        <v>50</v>
+      </c>
+      <c r="G22" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A23" s="7">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="7">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7">
+        <v>82</v>
+      </c>
+      <c r="E23" s="7">
+        <v>80</v>
+      </c>
+      <c r="F23" s="7">
+        <v>78</v>
+      </c>
+      <c r="G23" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A24" s="7">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="7">
+        <v>63</v>
+      </c>
+      <c r="D24" s="7">
+        <v>66</v>
+      </c>
+      <c r="E24" s="7">
+        <v>64</v>
+      </c>
+      <c r="F24" s="7">
+        <v>62</v>
+      </c>
+      <c r="G24" s="7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A25" s="7">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="7">
+        <v>39</v>
+      </c>
+      <c r="D25" s="7">
+        <v>42</v>
+      </c>
+      <c r="E25" s="7">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7">
+        <v>38</v>
+      </c>
+      <c r="G25" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A26" s="7">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="7">
+        <v>85</v>
+      </c>
+      <c r="D26" s="7">
+        <v>88</v>
+      </c>
+      <c r="E26" s="7">
+        <v>87</v>
+      </c>
+      <c r="F26" s="7">
+        <v>84</v>
+      </c>
+      <c r="G26" s="7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="7">
+        <v>56</v>
+      </c>
+      <c r="D27" s="7">
+        <v>59</v>
+      </c>
+      <c r="E27" s="7">
+        <v>58</v>
+      </c>
+      <c r="F27" s="7">
+        <v>55</v>
+      </c>
+      <c r="G27" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7">
+        <v>72</v>
+      </c>
+      <c r="D28" s="7">
+        <v>75</v>
+      </c>
+      <c r="E28" s="7">
+        <v>73</v>
+      </c>
+      <c r="F28" s="7">
+        <v>71</v>
+      </c>
+      <c r="G28" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="7">
+        <v>33</v>
+      </c>
+      <c r="D29" s="7">
+        <v>36</v>
+      </c>
+      <c r="E29" s="7">
+        <v>35</v>
+      </c>
+      <c r="F29" s="7">
+        <v>34</v>
+      </c>
+      <c r="G29" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="7">
+        <v>66</v>
+      </c>
+      <c r="D30" s="7">
+        <v>69</v>
+      </c>
+      <c r="E30" s="7">
+        <v>67</v>
+      </c>
+      <c r="F30" s="7">
+        <v>65</v>
+      </c>
+      <c r="G30" s="7">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="7">
+        <v>91</v>
+      </c>
+      <c r="D31" s="7">
+        <v>94</v>
+      </c>
+      <c r="E31" s="7">
+        <v>92</v>
+      </c>
+      <c r="F31" s="7">
+        <v>90</v>
+      </c>
+      <c r="G31" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="7">
+        <v>48</v>
+      </c>
+      <c r="D32" s="7">
+        <v>50</v>
+      </c>
+      <c r="E32" s="7">
+        <v>49</v>
+      </c>
+      <c r="F32" s="7">
+        <v>47</v>
+      </c>
+      <c r="G32" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="7">
+        <v>77</v>
+      </c>
+      <c r="D33" s="7">
+        <v>80</v>
+      </c>
+      <c r="E33" s="7">
+        <v>78</v>
+      </c>
+      <c r="F33" s="7">
+        <v>76</v>
+      </c>
+      <c r="G33" s="7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="7">
+        <v>60</v>
+      </c>
+      <c r="D34" s="7">
+        <v>63</v>
+      </c>
+      <c r="E34" s="7">
+        <v>61</v>
+      </c>
+      <c r="F34" s="7">
+        <v>59</v>
+      </c>
+      <c r="G34" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="7">
+        <v>42</v>
+      </c>
+      <c r="D35" s="7">
+        <v>45</v>
+      </c>
+      <c r="E35" s="7">
+        <v>43</v>
+      </c>
+      <c r="F35" s="7">
+        <v>41</v>
+      </c>
+      <c r="G35" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="7">
+        <v>84</v>
+      </c>
+      <c r="D36" s="7">
+        <v>87</v>
+      </c>
+      <c r="E36" s="7">
+        <v>85</v>
+      </c>
+      <c r="F36" s="7">
+        <v>82</v>
+      </c>
+      <c r="G36" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="7">
+        <v>55</v>
+      </c>
+      <c r="D37" s="7">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7">
+        <v>56</v>
+      </c>
+      <c r="F37" s="7">
+        <v>54</v>
+      </c>
+      <c r="G37" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="7">
+        <v>70</v>
+      </c>
+      <c r="D38" s="7">
+        <v>73</v>
+      </c>
+      <c r="E38" s="7">
+        <v>71</v>
+      </c>
+      <c r="F38" s="7">
+        <v>69</v>
+      </c>
+      <c r="G38" s="7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="7">
+        <v>36</v>
+      </c>
+      <c r="D39" s="7">
+        <v>39</v>
+      </c>
+      <c r="E39" s="7">
+        <v>38</v>
+      </c>
+      <c r="F39" s="7">
+        <v>37</v>
+      </c>
+      <c r="G39" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="7">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="7">
+        <v>64</v>
+      </c>
+      <c r="D40" s="7">
+        <v>67</v>
+      </c>
+      <c r="E40" s="7">
+        <v>65</v>
+      </c>
+      <c r="F40" s="7">
+        <v>63</v>
+      </c>
+      <c r="G40" s="7">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="7">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="7">
+        <v>78</v>
+      </c>
+      <c r="D41" s="7">
+        <v>81</v>
+      </c>
+      <c r="E41" s="7">
+        <v>79</v>
+      </c>
+      <c r="F41" s="7">
+        <v>77</v>
+      </c>
+      <c r="G41" s="7">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="7">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="7">
+        <v>46</v>
+      </c>
+      <c r="D42" s="7">
+        <v>49</v>
+      </c>
+      <c r="E42" s="7">
+        <v>47</v>
+      </c>
+      <c r="F42" s="7">
+        <v>45</v>
+      </c>
+      <c r="G42" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" s="7">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="7">
+        <v>86</v>
+      </c>
+      <c r="D43" s="7">
+        <v>89</v>
+      </c>
+      <c r="E43" s="7">
+        <v>88</v>
+      </c>
+      <c r="F43" s="7">
+        <v>85</v>
+      </c>
+      <c r="G43" s="7">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="7">
+        <v>57</v>
+      </c>
+      <c r="D44" s="7">
+        <v>60</v>
+      </c>
+      <c r="E44" s="7">
+        <v>58</v>
+      </c>
+      <c r="F44" s="7">
+        <v>56</v>
+      </c>
+      <c r="G44" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" s="7">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="7">
+        <v>40</v>
+      </c>
+      <c r="D45" s="7">
+        <v>43</v>
+      </c>
+      <c r="E45" s="7">
+        <v>41</v>
+      </c>
+      <c r="F45" s="7">
+        <v>39</v>
+      </c>
+      <c r="G45" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" s="7">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="7">
+        <v>83</v>
+      </c>
+      <c r="D46" s="7">
+        <v>86</v>
+      </c>
+      <c r="E46" s="7">
+        <v>84</v>
+      </c>
+      <c r="F46" s="7">
+        <v>82</v>
+      </c>
+      <c r="G46" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" s="7">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="7">
+        <v>69</v>
+      </c>
+      <c r="D47" s="7">
+        <v>72</v>
+      </c>
+      <c r="E47" s="7">
+        <v>70</v>
+      </c>
+      <c r="F47" s="7">
+        <v>68</v>
+      </c>
+      <c r="G47" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="7">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="7">
+        <v>52</v>
+      </c>
+      <c r="D48" s="7">
+        <v>55</v>
+      </c>
+      <c r="E48" s="7">
+        <v>53</v>
+      </c>
+      <c r="F48" s="7">
+        <v>51</v>
+      </c>
+      <c r="G48" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="7">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="7">
+        <v>90</v>
+      </c>
+      <c r="D49" s="7">
+        <v>93</v>
+      </c>
+      <c r="E49" s="7">
+        <v>91</v>
+      </c>
+      <c r="F49" s="7">
+        <v>89</v>
+      </c>
+      <c r="G49" s="7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="7">
+        <v>61</v>
+      </c>
+      <c r="D50" s="7">
+        <v>64</v>
+      </c>
+      <c r="E50" s="7">
+        <v>62</v>
+      </c>
+      <c r="F50" s="7">
+        <v>60</v>
+      </c>
+      <c r="G50" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A51" s="7">
+        <v>50</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="7">
+        <v>75</v>
+      </c>
+      <c r="D51" s="7">
+        <v>78</v>
+      </c>
+      <c r="E51" s="7">
+        <v>76</v>
+      </c>
+      <c r="F51" s="7">
+        <v>74</v>
+      </c>
+      <c r="G51" s="7">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:O4"/>
+    <mergeCell ref="J10:L11"/>
+    <mergeCell ref="J17:L18"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J6 K13 K20" xr:uid="{D7A9CB20-E8BC-4E90-939C-58B96A0D1265}">
+      <formula1>$C$1:$G$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14 J21" xr:uid="{6DF2DCCA-B35F-42E3-AD90-9A425EF2275E}">
+      <formula1>$B$2:$B$51</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
